--- a/Examples/AcPowerSystem/SingleMachineInfiniteBus/GfmInverterInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleMachineInfiniteBus/GfmInverterInfiniteBus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B37C78-6F36-4D12-BA59-B1E2BB2C122C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7D87C-4DB0-4C3E-8A21-90231DE3BD79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1075,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
